--- a/lotes_residuos.xlsx
+++ b/lotes_residuos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hernany Castro\OneDrive\Área de Trabalho\Doutorado\Métodos Ciência Política\transito\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hernany Castro\OneDrive\Área de Trabalho\CREAS\creas_r\gith_transito\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AE3C02-75FF-4CA6-9EC3-EA3E1FC44CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B929CF-7FCF-49C9-A4D3-869B8BAC0E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
   <si>
     <r>
       <rPr>
@@ -148,12 +148,15 @@
   <si>
     <t>VARJAO</t>
   </si>
+  <si>
+    <t>ano</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -175,26 +178,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="7.5"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -217,24 +210,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -251,10 +231,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -565,7 +541,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="C3" sqref="C3:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -582,214 +558,262 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="5">
+        <v>2023</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5">
+        <v>2023</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="5">
+        <v>2023</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="5">
+        <v>2023</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5">
+        <v>2023</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5">
+        <v>2023</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5">
+        <v>2023</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5">
+        <v>2023</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5">
+        <v>2023</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="5">
+        <v>2023</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="5">
+        <v>2023</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5">
+        <v>2023</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5">
+        <v>2023</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5">
+        <v>2023</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5">
+        <v>2023</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5">
+        <v>2023</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="5">
+        <v>2023</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="5">
+        <v>2023</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="5">
+        <v>2023</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="5">
+        <v>2023</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="5">
+        <v>2023</v>
+      </c>
     </row>
     <row r="23" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="5">
+        <v>2023</v>
+      </c>
     </row>
     <row r="24" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="5">
+        <v>2023</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
@@ -798,43 +822,53 @@
       <c r="B25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="5"/>
+      <c r="C25" s="5">
+        <v>2023</v>
+      </c>
     </row>
     <row r="26" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="5"/>
+      <c r="C26" s="5">
+        <v>2023</v>
+      </c>
     </row>
     <row r="27" spans="1:3" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="5"/>
+      <c r="C27" s="5">
+        <v>2023</v>
+      </c>
     </row>
     <row r="28" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="5"/>
+      <c r="C28" s="5">
+        <v>2023</v>
+      </c>
     </row>
     <row r="29" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="5"/>
+      <c r="C29" s="5">
+        <v>2023</v>
+      </c>
     </row>
     <row r="30" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
@@ -843,61 +877,75 @@
       <c r="B30" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="7"/>
+      <c r="C30" s="5">
+        <v>2023</v>
+      </c>
     </row>
     <row r="31" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="5"/>
+      <c r="C31" s="5">
+        <v>2023</v>
+      </c>
     </row>
     <row r="32" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="5"/>
+      <c r="C32" s="5">
+        <v>2023</v>
+      </c>
     </row>
     <row r="33" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="5"/>
+      <c r="C33" s="5">
+        <v>2023</v>
+      </c>
     </row>
     <row r="34" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="5"/>
+      <c r="C34" s="5">
+        <v>2023</v>
+      </c>
     </row>
     <row r="35" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="1"/>
+      <c r="C35" s="5">
+        <v>2023</v>
+      </c>
     </row>
     <row r="36" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="1"/>
+      <c r="C36" s="5">
+        <v>2023</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B36">
